--- a/scorecardpipeline/template.xlsx
+++ b/scorecardpipeline/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lubberit/Desktop/金融/兴业银行贷中行为评分/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lubberit/Desktop/workspace/scorecardpipeline/scorecardpipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE436D3-E531-CC4E-BB02-CAAAE8446CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC67F7B-EF9C-D54A-B322-A43D56BB3D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="33600" windowHeight="21900" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
   <sheets>
     <sheet name="初始化" sheetId="1" r:id="rId1"/>
@@ -64,12 +64,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -82,7 +97,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -368,7 +383,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
